--- a/TouhouVote_jp_grouped.xlsx
+++ b/TouhouVote_jp_grouped.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\School\Touhou\fun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E295235-62EC-4DF2-8529-A819F7006677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D08D30C-CDB7-4718-AEBB-7272CAA582E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" firstSheet="12" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" firstSheet="12" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3(th08)" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3489" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3489" uniqueCount="256">
   <si>
     <t>名次</t>
   </si>
@@ -806,12 +806,16 @@
     <t>チルノ</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>译名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -831,6 +835,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -868,9 +879,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -21623,8 +21637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:J118"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -21642,8 +21656,8 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
+      <c r="E1" s="2" t="s">
+        <v>255</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -25415,7 +25429,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:J123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="A1:J1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
